--- a/Wine_Quality/outputs/train_80_test_20/depth_2/wq_train_80_test_20_depth_2_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_2/wq_train_80_test_20_depth_2_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.4647302904564315</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7653846153846153</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8671023965141612</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>995</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.8240223463687151</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.8894472361809045</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.8554857419043016</v>
       </c>
       <c r="E4" t="n">
-        <v>256</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7653846153846153</v>
+        <v>0.7669230769230769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7653846153846153</v>
+        <v>0.7669230769230769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7653846153846153</v>
+        <v>0.7669230769230769</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7653846153846153</v>
+        <v>0.7669230769230769</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2551282051282051</v>
+        <v>0.4398658558692177</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4423157453936348</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2890341321713871</v>
+        <v>0.440072010786911</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5858136094674556</v>
+        <v>0.7282842240569536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7653846153846153</v>
+        <v>0.7669230769230769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6636668342550696</v>
+        <v>0.7462917442704819</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>

--- a/Wine_Quality/outputs/train_80_test_20/depth_2/wq_train_80_test_20_depth_2_report.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/depth_2/wq_train_80_test_20_depth_2_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.495575221238938</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4375</v>
+        <v>0.44</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4647302904564315</v>
+        <v>0.46</v>
       </c>
       <c r="E2" t="n">
         <v>256</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8240223463687151</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8894472361809045</v>
+        <v>0.89</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8554857419043016</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
         <v>995</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7669230769230769</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7669230769230769</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7669230769230769</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7669230769230769</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4398658558692177</v>
+        <v>0.44</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4423157453936348</v>
+        <v>0.44</v>
       </c>
       <c r="D6" t="n">
-        <v>0.440072010786911</v>
+        <v>0.44</v>
       </c>
       <c r="E6" t="n">
         <v>1300</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7282842240569536</v>
+        <v>0.73</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7669230769230769</v>
+        <v>0.77</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7462917442704819</v>
+        <v>0.75</v>
       </c>
       <c r="E7" t="n">
         <v>1300</v>
